--- a/Code/Results/Cases/Case_1_255/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_255/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8232241286532371</v>
+        <v>0.674334574529496</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07758506471385118</v>
+        <v>0.165699909200427</v>
       </c>
       <c r="E2">
-        <v>0.06494123504165117</v>
+        <v>0.1709213590108387</v>
       </c>
       <c r="F2">
-        <v>0.7718438641430936</v>
+        <v>1.652445559581004</v>
       </c>
       <c r="G2">
-        <v>0.0008189311805555477</v>
+        <v>0.002484681466328701</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5009162950625274</v>
+        <v>1.221848163755823</v>
       </c>
       <c r="J2">
-        <v>0.09353562219104561</v>
+        <v>0.2209342131489471</v>
       </c>
       <c r="K2">
-        <v>1.391231347501588</v>
+        <v>0.4599897358796738</v>
       </c>
       <c r="L2">
-        <v>0.3310142924321724</v>
+        <v>0.2430947639491876</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.922823783004475</v>
+        <v>4.112535607678694</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7214228356094168</v>
+        <v>0.6465430905678318</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07323090443644276</v>
+        <v>0.1652084267701852</v>
       </c>
       <c r="E3">
-        <v>0.06589654986112237</v>
+        <v>0.1719248794348829</v>
       </c>
       <c r="F3">
-        <v>0.7609630052546876</v>
+        <v>1.661099994329319</v>
       </c>
       <c r="G3">
-        <v>0.0008227364450615142</v>
+        <v>0.002487215116926315</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5205660635147673</v>
+        <v>1.234682631242698</v>
       </c>
       <c r="J3">
-        <v>0.09624676085362471</v>
+        <v>0.2224605919060992</v>
       </c>
       <c r="K3">
-        <v>1.215089918545175</v>
+        <v>0.4052526514537078</v>
       </c>
       <c r="L3">
-        <v>0.2894129824106528</v>
+        <v>0.2319176901096398</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.907567566391663</v>
+        <v>4.138691301653296</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6591485169238638</v>
+        <v>0.6296693325681133</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07061400863896949</v>
+        <v>0.1649548143632131</v>
       </c>
       <c r="E4">
-        <v>0.06654432082950912</v>
+        <v>0.1725870779272398</v>
       </c>
       <c r="F4">
-        <v>0.7556568105831474</v>
+        <v>1.667209193760712</v>
       </c>
       <c r="G4">
-        <v>0.0008251528185931665</v>
+        <v>0.002488854977137414</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5335257274923144</v>
+        <v>1.243081333061472</v>
       </c>
       <c r="J4">
-        <v>0.09798862649024442</v>
+        <v>0.2234508350012261</v>
       </c>
       <c r="K4">
-        <v>1.106933321682703</v>
+        <v>0.3715842841881454</v>
       </c>
       <c r="L4">
-        <v>0.2639889189815818</v>
+        <v>0.2251290745373211</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.902006842064296</v>
+        <v>4.156845794165704</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6338215310913995</v>
+        <v>0.6228416270937771</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.06956134947815684</v>
+        <v>0.1648636280581854</v>
       </c>
       <c r="E5">
-        <v>0.06682351108520823</v>
+        <v>0.1728685289161067</v>
       </c>
       <c r="F5">
-        <v>0.7538272408825648</v>
+        <v>1.66989888730707</v>
       </c>
       <c r="G5">
-        <v>0.0008261579305060899</v>
+        <v>0.002489544465576963</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5390263178310786</v>
+        <v>1.246634257930797</v>
       </c>
       <c r="J5">
-        <v>0.0987177537467212</v>
+        <v>0.2238677287698897</v>
       </c>
       <c r="K5">
-        <v>1.0628443024045</v>
+        <v>0.3578500094317008</v>
       </c>
       <c r="L5">
-        <v>0.2536542859137967</v>
+        <v>0.2223815064890431</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.900660509585691</v>
+        <v>4.164770822221215</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6296188159251415</v>
+        <v>0.6217108388959787</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.06938737297443964</v>
+        <v>0.1648492227955884</v>
       </c>
       <c r="E6">
-        <v>0.06687078465620555</v>
+        <v>0.1729159649500378</v>
       </c>
       <c r="F6">
-        <v>0.7535431724247346</v>
+        <v>1.670357601560802</v>
       </c>
       <c r="G6">
-        <v>0.0008263260711656906</v>
+        <v>0.002489660238651603</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5399527816571883</v>
+        <v>1.247232095086893</v>
       </c>
       <c r="J6">
-        <v>0.09883998736551081</v>
+        <v>0.2239377613870859</v>
       </c>
       <c r="K6">
-        <v>1.055522122391352</v>
+        <v>0.3555686142129559</v>
       </c>
       <c r="L6">
-        <v>0.2519396748431291</v>
+        <v>0.2219264192179509</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.900491436584673</v>
+        <v>4.166118597159297</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6588067549716357</v>
+        <v>0.6295770545827111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07059975706329169</v>
+        <v>0.1649535352752025</v>
       </c>
       <c r="E7">
-        <v>0.06654802469067178</v>
+        <v>0.1725908266742104</v>
       </c>
       <c r="F7">
-        <v>0.7556308057400898</v>
+        <v>1.667244657330059</v>
       </c>
       <c r="G7">
-        <v>0.0008251662907466762</v>
+        <v>0.002488864189827436</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5335990290911425</v>
+        <v>1.243128721044965</v>
       </c>
       <c r="J7">
-        <v>0.09799838174572351</v>
+        <v>0.2234564032429915</v>
       </c>
       <c r="K7">
-        <v>1.106338796454651</v>
+        <v>0.3713991151004734</v>
       </c>
       <c r="L7">
-        <v>0.2638494430059097</v>
+        <v>0.2250919432912184</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.901985009376816</v>
+        <v>4.156950540141167</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7880698536016553</v>
+        <v>0.6647129359516555</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07607171022425518</v>
+        <v>0.1655204816203479</v>
       </c>
       <c r="E8">
-        <v>0.06525781941796449</v>
+        <v>0.1712578333889603</v>
       </c>
       <c r="F8">
-        <v>0.7677988535094116</v>
+        <v>1.655264624112718</v>
       </c>
       <c r="G8">
-        <v>0.000820226845488842</v>
+        <v>0.002485537633317636</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5075024521405105</v>
+        <v>1.226165953683694</v>
       </c>
       <c r="J8">
-        <v>0.09445432764170236</v>
+        <v>0.2214495146920435</v>
       </c>
       <c r="K8">
-        <v>1.330490674682892</v>
+        <v>0.4411292401389346</v>
       </c>
       <c r="L8">
-        <v>0.3166428344368342</v>
+        <v>0.2392256354014393</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.916750237586484</v>
+        <v>4.121119417918663</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.043794303663788</v>
+        <v>0.7351006669343576</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08727455728845257</v>
+        <v>0.1670122462673902</v>
       </c>
       <c r="E9">
-        <v>0.06322140237376672</v>
+        <v>0.1690080009632551</v>
       </c>
       <c r="F9">
-        <v>0.8031832347173804</v>
+        <v>1.638076721055718</v>
       </c>
       <c r="G9">
-        <v>0.0008111594382334954</v>
+        <v>0.002479679427796303</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4636857879670728</v>
+        <v>1.197011511540214</v>
       </c>
       <c r="J9">
-        <v>0.08812224899389065</v>
+        <v>0.2179337389874222</v>
       </c>
       <c r="K9">
-        <v>1.770661306173338</v>
+        <v>0.5773668417247109</v>
       </c>
       <c r="L9">
-        <v>0.4213195064457835</v>
+        <v>0.26752282070197</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.977693576115712</v>
+        <v>4.067470156975929</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.23364698070651</v>
+        <v>0.7876943993611007</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09582861162460432</v>
+        <v>0.1683372668864109</v>
       </c>
       <c r="E10">
-        <v>0.06203783815235298</v>
+        <v>0.1675755677439579</v>
       </c>
       <c r="F10">
-        <v>0.8371102441688691</v>
+        <v>1.629285867523151</v>
       </c>
       <c r="G10">
-        <v>0.000804852293516878</v>
+        <v>0.002475776932463228</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4363577959827722</v>
+        <v>1.178092653380386</v>
       </c>
       <c r="J10">
-        <v>0.0838538528722057</v>
+        <v>0.2156049738108184</v>
       </c>
       <c r="K10">
-        <v>2.09542068563394</v>
+        <v>0.6771230756575335</v>
       </c>
       <c r="L10">
-        <v>0.4992321567554256</v>
+        <v>0.2886594368673769</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.044597259415951</v>
+        <v>4.038178251005149</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.320589219186502</v>
+        <v>0.8118065059259152</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0997986826086219</v>
+        <v>0.1689892433045728</v>
       </c>
       <c r="E11">
-        <v>0.06156998190603602</v>
+        <v>0.1669714859446856</v>
       </c>
       <c r="F11">
-        <v>0.8544806662024342</v>
+        <v>1.626118576672212</v>
       </c>
       <c r="G11">
-        <v>0.0008020547527867935</v>
+        <v>0.002474087929171029</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4250706610333737</v>
+        <v>1.170028095995338</v>
       </c>
       <c r="J11">
-        <v>0.08199703053333618</v>
+        <v>0.2146004301255294</v>
       </c>
       <c r="K11">
-        <v>2.2436984849341</v>
+        <v>0.7224255489542486</v>
       </c>
       <c r="L11">
-        <v>0.5349686028506255</v>
+        <v>0.2983488494975717</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.080461444605589</v>
+        <v>4.02705014297581</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.35360758884039</v>
+        <v>0.8209634595758075</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1013141042272068</v>
+        <v>0.1692431576844484</v>
       </c>
       <c r="E12">
-        <v>0.06140320099012975</v>
+        <v>0.1667495473962202</v>
       </c>
       <c r="F12">
-        <v>0.8613559876551449</v>
+        <v>1.625038681879957</v>
       </c>
       <c r="G12">
-        <v>0.000801005237949364</v>
+        <v>0.002473460688366184</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4209690677753137</v>
+        <v>1.167052101816378</v>
       </c>
       <c r="J12">
-        <v>0.0813062595906725</v>
+        <v>0.2142278941525569</v>
       </c>
       <c r="K12">
-        <v>2.299946443033122</v>
+        <v>0.7395686097115401</v>
       </c>
       <c r="L12">
-        <v>0.5485497094773422</v>
+        <v>0.3020284839329292</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.094878703901855</v>
+        <v>4.023152034867252</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.34649205293664</v>
+        <v>0.8189901900403527</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1009871836501191</v>
+        <v>0.1691881610715882</v>
       </c>
       <c r="E13">
-        <v>0.06143865435012152</v>
+        <v>0.16679704312285</v>
       </c>
       <c r="F13">
-        <v>0.8598617156059447</v>
+        <v>1.625265943969836</v>
       </c>
       <c r="G13">
-        <v>0.0008012308389267365</v>
+        <v>0.002473595227629998</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4218446096625996</v>
+        <v>1.16768957206402</v>
       </c>
       <c r="J13">
-        <v>0.08145447679952822</v>
+        <v>0.2143077770607785</v>
       </c>
       <c r="K13">
-        <v>2.287827724307704</v>
+        <v>0.7358770931320748</v>
       </c>
       <c r="L13">
-        <v>0.5456225137593975</v>
+        <v>0.3012355468322596</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.091735570418933</v>
+        <v>4.023977514835792</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.323303678701478</v>
+        <v>0.8125593322636178</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09992311167047063</v>
+        <v>0.1690099925009818</v>
       </c>
       <c r="E14">
-        <v>0.06155605116250662</v>
+        <v>0.1669530904870982</v>
       </c>
       <c r="F14">
-        <v>0.8550402268956674</v>
+        <v>1.62602733896027</v>
       </c>
       <c r="G14">
-        <v>0.0008019682137794929</v>
+        <v>0.002474036078727328</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4247297135687482</v>
+        <v>1.169781698476761</v>
       </c>
       <c r="J14">
-        <v>0.08193995158737177</v>
+        <v>0.2145696238998303</v>
       </c>
       <c r="K14">
-        <v>2.248323945126515</v>
+        <v>0.7238361646349745</v>
       </c>
       <c r="L14">
-        <v>0.5360849192891948</v>
+        <v>0.2986513667461281</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.08163046933791</v>
+        <v>4.026723113166611</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.309112909107256</v>
+        <v>0.8086236414938242</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09927292701625845</v>
+        <v>0.1689017724239577</v>
       </c>
       <c r="E15">
-        <v>0.0616293200375484</v>
+        <v>0.1670495607524352</v>
       </c>
       <c r="F15">
-        <v>0.8521262574328006</v>
+        <v>1.626509273173369</v>
       </c>
       <c r="G15">
-        <v>0.0008024211466444252</v>
+        <v>0.002474307719058766</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4265196473494051</v>
+        <v>1.171073327802748</v>
       </c>
       <c r="J15">
-        <v>0.08223893439156715</v>
+        <v>0.2147310360247502</v>
       </c>
       <c r="K15">
-        <v>2.224140178806067</v>
+        <v>0.7164591581882291</v>
       </c>
       <c r="L15">
-        <v>0.5302493760927547</v>
+        <v>0.29706983821508</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.075551423730559</v>
+        <v>4.028446004834393</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.227977742461462</v>
+        <v>0.7861223218820044</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09557080338815638</v>
+        <v>0.1682956445995742</v>
       </c>
       <c r="E16">
-        <v>0.0620698536472517</v>
+        <v>0.1676160006415159</v>
       </c>
       <c r="F16">
-        <v>0.836015616391883</v>
+        <v>1.629509584242086</v>
       </c>
       <c r="G16">
-        <v>0.0008050365229822498</v>
+        <v>0.002475889043546502</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4371191414301023</v>
+        <v>1.178630590293228</v>
       </c>
       <c r="J16">
-        <v>0.0839769223285991</v>
+        <v>0.2156717245227355</v>
       </c>
       <c r="K16">
-        <v>2.085743010119785</v>
+        <v>0.6741608223811113</v>
       </c>
       <c r="L16">
-        <v>0.4969031295922974</v>
+        <v>0.2880276869332903</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.042367364658304</v>
+        <v>4.038949702529607</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.178360230157722</v>
+        <v>0.7723659031189811</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0933203421505624</v>
+        <v>0.1679363733528731</v>
       </c>
       <c r="E17">
-        <v>0.06235834431510057</v>
+        <v>0.1679756534511068</v>
       </c>
       <c r="F17">
-        <v>0.826641461848034</v>
+        <v>1.631563121508961</v>
       </c>
       <c r="G17">
-        <v>0.0008066590049888855</v>
+        <v>0.002476881188335892</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4439202735532746</v>
+        <v>1.183405460137209</v>
       </c>
       <c r="J17">
-        <v>0.08506497601047802</v>
+        <v>0.2162628332915932</v>
       </c>
       <c r="K17">
-        <v>2.000993885724313</v>
+        <v>0.6481917577816034</v>
       </c>
       <c r="L17">
-        <v>0.4765258040935265</v>
+        <v>0.2824994871156719</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.0234389457475</v>
+        <v>4.045956030964817</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.14987510662101</v>
+        <v>0.7644712112860361</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09203330696688994</v>
+        <v>0.1677343657809729</v>
       </c>
       <c r="E18">
-        <v>0.06253090216269008</v>
+        <v>0.1681869921631964</v>
       </c>
       <c r="F18">
-        <v>0.8214307918588659</v>
+        <v>1.63282255313657</v>
       </c>
       <c r="G18">
-        <v>0.0008075989822489781</v>
+        <v>0.002477459966489043</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4479393220517132</v>
+        <v>1.186202830027504</v>
       </c>
       <c r="J18">
-        <v>0.0856987761702247</v>
+        <v>0.2166079848688445</v>
       </c>
       <c r="K18">
-        <v>1.952298250335019</v>
+        <v>0.6332478323099053</v>
       </c>
       <c r="L18">
-        <v>0.4648325377691265</v>
+        <v>0.2793268152774289</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.013059315346879</v>
+        <v>4.050192674009168</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.140239373430774</v>
+        <v>0.7618012535417336</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09159878393723631</v>
+        <v>0.16766676728097</v>
       </c>
       <c r="E19">
-        <v>0.06259045811962505</v>
+        <v>0.1682593172354174</v>
       </c>
       <c r="F19">
-        <v>0.8196970933078802</v>
+        <v>1.633262424990768</v>
       </c>
       <c r="G19">
-        <v>0.0008079184180137113</v>
+        <v>0.002477657327813496</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4493182811887415</v>
+        <v>1.187158729811422</v>
       </c>
       <c r="J19">
-        <v>0.08591473591740217</v>
+        <v>0.2167257343760866</v>
       </c>
       <c r="K19">
-        <v>1.935818708430531</v>
+        <v>0.6281868660080931</v>
       </c>
       <c r="L19">
-        <v>0.4608778921227525</v>
+        <v>0.2782538123276623</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.009630482596236</v>
+        <v>4.051662646155989</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.183636470319499</v>
+        <v>0.7738284768787196</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0935591397531752</v>
+        <v>0.1679741389891305</v>
       </c>
       <c r="E20">
-        <v>0.06232694655940563</v>
+        <v>0.1679369047134216</v>
       </c>
       <c r="F20">
-        <v>0.8276204802446472</v>
+        <v>1.631336416897177</v>
       </c>
       <c r="G20">
-        <v>0.0008064855916161868</v>
+        <v>0.002476774732785742</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4431851283529618</v>
+        <v>1.182891889860514</v>
       </c>
       <c r="J20">
-        <v>0.08494832375761041</v>
+        <v>0.2161993747134083</v>
       </c>
       <c r="K20">
-        <v>2.010010276568977</v>
+        <v>0.6509569614781299</v>
       </c>
       <c r="L20">
-        <v>0.4786921427439665</v>
+        <v>0.2830872502474477</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.025400994129171</v>
+        <v>4.045188793893232</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.330111980107944</v>
+        <v>0.8144475246783145</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1002353226784223</v>
+        <v>0.1690621346879624</v>
       </c>
       <c r="E21">
-        <v>0.06152128501541476</v>
+        <v>0.1669070708350961</v>
       </c>
       <c r="F21">
-        <v>0.8564481826088155</v>
+        <v>1.625800456761141</v>
       </c>
       <c r="G21">
-        <v>0.0008017513651520161</v>
+        <v>0.002473906255340727</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4238775378483552</v>
+        <v>1.16916507679522</v>
       </c>
       <c r="J21">
-        <v>0.08179701891340729</v>
+        <v>0.2144924999016508</v>
       </c>
       <c r="K21">
-        <v>2.259924323592031</v>
+        <v>0.7273732101999144</v>
       </c>
       <c r="L21">
-        <v>0.5388849737030199</v>
+        <v>0.2994101207906965</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.084575424699324</v>
+        <v>4.025908092308754</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.426403573298643</v>
+        <v>0.8411469580162532</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1046691488342404</v>
+        <v>0.1698141259796202</v>
       </c>
       <c r="E22">
-        <v>0.06105539782288893</v>
+        <v>0.1662737226290449</v>
       </c>
       <c r="F22">
-        <v>0.8770326814843088</v>
+        <v>1.622878811849404</v>
       </c>
       <c r="G22">
-        <v>0.0007987144797951174</v>
+        <v>0.002472103486581343</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4122690510193969</v>
+        <v>1.160647738035735</v>
       </c>
       <c r="J22">
-        <v>0.07980962552346982</v>
+        <v>0.2134227802115186</v>
       </c>
       <c r="K22">
-        <v>2.423841533020891</v>
+        <v>0.7772452651567505</v>
       </c>
       <c r="L22">
-        <v>0.5785103526430362</v>
+        <v>0.3101389542432429</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.128152345425917</v>
+        <v>4.015148117279097</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.374955306377188</v>
+        <v>0.8268832288095496</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1022960287245098</v>
+        <v>0.1694090468760407</v>
       </c>
       <c r="E23">
-        <v>0.06129841733904229</v>
+        <v>0.1666081264581543</v>
       </c>
       <c r="F23">
-        <v>0.8658801600077624</v>
+        <v>1.624374462169484</v>
       </c>
       <c r="G23">
-        <v>0.000800330242360997</v>
+        <v>0.002473059093555541</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4183695058130965</v>
+        <v>1.165152074476023</v>
       </c>
       <c r="J23">
-        <v>0.08086367661988603</v>
+        <v>0.2139895238193079</v>
       </c>
       <c r="K23">
-        <v>2.3362952973647</v>
+        <v>0.7506343506663598</v>
       </c>
       <c r="L23">
-        <v>0.5573331898146279</v>
+        <v>0.3044072728207539</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.104426532654742</v>
+        <v>4.020722476695255</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.181250956454647</v>
+        <v>0.773167203448196</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09345115827670725</v>
+        <v>0.1679570509935147</v>
       </c>
       <c r="E24">
-        <v>0.06234112063153674</v>
+        <v>0.1679544087828262</v>
       </c>
       <c r="F24">
-        <v>0.8271773109748608</v>
+        <v>1.631438664506746</v>
       </c>
       <c r="G24">
-        <v>0.0008065639693486337</v>
+        <v>0.00247682283521011</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4435171486284375</v>
+        <v>1.183123912276297</v>
       </c>
       <c r="J24">
-        <v>0.08500103651388002</v>
+        <v>0.2162280477785754</v>
       </c>
       <c r="K24">
-        <v>2.005933881299825</v>
+        <v>0.6497068563168966</v>
       </c>
       <c r="L24">
-        <v>0.4777126732031576</v>
+        <v>0.2828215051893181</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.024512390817648</v>
+        <v>4.045535011954399</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9743140406454529</v>
+        <v>0.7159025181755965</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08418979990950959</v>
+        <v>0.1665682766745817</v>
       </c>
       <c r="E25">
-        <v>0.06371828920767619</v>
+        <v>0.1695778079086612</v>
       </c>
       <c r="F25">
-        <v>0.7922870398713613</v>
+        <v>1.642052195802528</v>
       </c>
       <c r="G25">
-        <v>0.0008135484236335635</v>
+        <v>0.002481193429915567</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4747138456739108</v>
+        <v>1.204459062131409</v>
       </c>
       <c r="J25">
-        <v>0.08976838665563758</v>
+        <v>0.2188400810185084</v>
       </c>
       <c r="K25">
-        <v>1.651419744374863</v>
+        <v>0.5405680152385912</v>
       </c>
       <c r="L25">
-        <v>0.3928482917319087</v>
+        <v>0.2598062588371732</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.957520750478409</v>
+        <v>4.080205421433988</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_255/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_255/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.674334574529496</v>
+        <v>0.8232241286532656</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.165699909200427</v>
+        <v>0.07758506471355986</v>
       </c>
       <c r="E2">
-        <v>0.1709213590108387</v>
+        <v>0.06494123504162186</v>
       </c>
       <c r="F2">
-        <v>1.652445559581004</v>
+        <v>0.7718438641430794</v>
       </c>
       <c r="G2">
-        <v>0.002484681466328701</v>
+        <v>0.0008189311806949817</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.221848163755823</v>
+        <v>0.5009162950625061</v>
       </c>
       <c r="J2">
-        <v>0.2209342131489471</v>
+        <v>0.0935356221910314</v>
       </c>
       <c r="K2">
-        <v>0.4599897358796738</v>
+        <v>1.391231347501588</v>
       </c>
       <c r="L2">
-        <v>0.2430947639491876</v>
+        <v>0.3310142924321298</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.112535607678694</v>
+        <v>1.922823783004389</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6465430905678318</v>
+        <v>0.7214228356094168</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1652084267701852</v>
+        <v>0.07323090443637881</v>
       </c>
       <c r="E3">
-        <v>0.1719248794348829</v>
+        <v>0.06589654986113835</v>
       </c>
       <c r="F3">
-        <v>1.661099994329319</v>
+        <v>0.7609630052546521</v>
       </c>
       <c r="G3">
-        <v>0.002487215116926315</v>
+        <v>0.0008227364449027882</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.234682631242698</v>
+        <v>0.520566063514746</v>
       </c>
       <c r="J3">
-        <v>0.2224605919060992</v>
+        <v>0.09624676085366057</v>
       </c>
       <c r="K3">
-        <v>0.4052526514537078</v>
+        <v>1.215089918545175</v>
       </c>
       <c r="L3">
-        <v>0.2319176901096398</v>
+        <v>0.2894129824105534</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.138691301653296</v>
+        <v>1.907567566391606</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6296693325681133</v>
+        <v>0.6591485169238638</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1649548143632131</v>
+        <v>0.07061400863891265</v>
       </c>
       <c r="E4">
-        <v>0.1725870779272398</v>
+        <v>0.06654432082952511</v>
       </c>
       <c r="F4">
-        <v>1.667209193760712</v>
+        <v>0.7556568105831616</v>
       </c>
       <c r="G4">
-        <v>0.002488854977137414</v>
+        <v>0.0008251528186721957</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.243081333061472</v>
+        <v>0.533525727492318</v>
       </c>
       <c r="J4">
-        <v>0.2234508350012261</v>
+        <v>0.09798862649030182</v>
       </c>
       <c r="K4">
-        <v>0.3715842841881454</v>
+        <v>1.106933321682789</v>
       </c>
       <c r="L4">
-        <v>0.2251290745373211</v>
+        <v>0.2639889189815818</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.156845794165704</v>
+        <v>1.902006842064338</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6228416270937771</v>
+        <v>0.6338215310913995</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1648636280581854</v>
+        <v>0.06956134947831316</v>
       </c>
       <c r="E5">
-        <v>0.1728685289161067</v>
+        <v>0.06682351108519491</v>
       </c>
       <c r="F5">
-        <v>1.66989888730707</v>
+        <v>0.7538272408825577</v>
       </c>
       <c r="G5">
-        <v>0.002489544465576963</v>
+        <v>0.0008261579305061083</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.246634257930797</v>
+        <v>0.539026317831091</v>
       </c>
       <c r="J5">
-        <v>0.2238677287698897</v>
+        <v>0.09871775374672198</v>
       </c>
       <c r="K5">
-        <v>0.3578500094317008</v>
+        <v>1.0628443024045</v>
       </c>
       <c r="L5">
-        <v>0.2223815064890431</v>
+        <v>0.2536542859137683</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.164770822221215</v>
+        <v>1.900660509585649</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6217108388959787</v>
+        <v>0.6296188159252836</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1648492227955884</v>
+        <v>0.06938737297445385</v>
       </c>
       <c r="E6">
-        <v>0.1729159649500378</v>
+        <v>0.06687078465619045</v>
       </c>
       <c r="F6">
-        <v>1.670357601560802</v>
+        <v>0.7535431724247061</v>
       </c>
       <c r="G6">
-        <v>0.002489660238651603</v>
+        <v>0.0008263260710873644</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.247232095086893</v>
+        <v>0.5399527816571847</v>
       </c>
       <c r="J6">
-        <v>0.2239377613870859</v>
+        <v>0.09883998736551436</v>
       </c>
       <c r="K6">
-        <v>0.3555686142129559</v>
+        <v>1.05552212239121</v>
       </c>
       <c r="L6">
-        <v>0.2219264192179509</v>
+        <v>0.2519396748430438</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.166118597159297</v>
+        <v>1.900491436584645</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6295770545827111</v>
+        <v>0.6588067549716357</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1649535352752025</v>
+        <v>0.07059975706316379</v>
       </c>
       <c r="E7">
-        <v>0.1725908266742104</v>
+        <v>0.06654802469067356</v>
       </c>
       <c r="F7">
-        <v>1.667244657330059</v>
+        <v>0.7556308057400969</v>
       </c>
       <c r="G7">
-        <v>0.002488864189827436</v>
+        <v>0.0008251662906676234</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.243128721044965</v>
+        <v>0.533599029091139</v>
       </c>
       <c r="J7">
-        <v>0.2234564032429915</v>
+        <v>0.09799838174573128</v>
       </c>
       <c r="K7">
-        <v>0.3713991151004734</v>
+        <v>1.106338796454708</v>
       </c>
       <c r="L7">
-        <v>0.2250919432912184</v>
+        <v>0.2638494430058245</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.156950540141167</v>
+        <v>1.901985009376702</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6647129359516555</v>
+        <v>0.7880698536016553</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1655204816203479</v>
+        <v>0.07607171022425518</v>
       </c>
       <c r="E8">
-        <v>0.1712578333889603</v>
+        <v>0.06525781941795028</v>
       </c>
       <c r="F8">
-        <v>1.655264624112718</v>
+        <v>0.7677988535094045</v>
       </c>
       <c r="G8">
-        <v>0.002485537633317636</v>
+        <v>0.0008202268454891581</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.226165953683694</v>
+        <v>0.5075024521405105</v>
       </c>
       <c r="J8">
-        <v>0.2214495146920435</v>
+        <v>0.09445432764161565</v>
       </c>
       <c r="K8">
-        <v>0.4411292401389346</v>
+        <v>1.330490674682835</v>
       </c>
       <c r="L8">
-        <v>0.2392256354014393</v>
+        <v>0.3166428344368626</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.121119417918663</v>
+        <v>1.916750237586484</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7351006669343576</v>
+        <v>1.043794303663844</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1670122462673902</v>
+        <v>0.08727455728834599</v>
       </c>
       <c r="E9">
-        <v>0.1690080009632551</v>
+        <v>0.06322140237375873</v>
       </c>
       <c r="F9">
-        <v>1.638076721055718</v>
+        <v>0.8031832347173733</v>
       </c>
       <c r="G9">
-        <v>0.002479679427796303</v>
+        <v>0.000811159438235284</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.197011511540214</v>
+        <v>0.4636857879670693</v>
       </c>
       <c r="J9">
-        <v>0.2179337389874222</v>
+        <v>0.08812224899386223</v>
       </c>
       <c r="K9">
-        <v>0.5773668417247109</v>
+        <v>1.770661306173366</v>
       </c>
       <c r="L9">
-        <v>0.26752282070197</v>
+        <v>0.4213195064457693</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.067470156975929</v>
+        <v>1.977693576115655</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7876943993611007</v>
+        <v>1.233646980706681</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1683372668864109</v>
+        <v>0.09582861162459722</v>
       </c>
       <c r="E10">
-        <v>0.1675755677439579</v>
+        <v>0.0620378381523583</v>
       </c>
       <c r="F10">
-        <v>1.629285867523151</v>
+        <v>0.8371102441688905</v>
       </c>
       <c r="G10">
-        <v>0.002475776932463228</v>
+        <v>0.0008048522935154784</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.178092653380386</v>
+        <v>0.4363577959827545</v>
       </c>
       <c r="J10">
-        <v>0.2156049738108184</v>
+        <v>0.0838538528722117</v>
       </c>
       <c r="K10">
-        <v>0.6771230756575335</v>
+        <v>2.095420685634025</v>
       </c>
       <c r="L10">
-        <v>0.2886594368673769</v>
+        <v>0.4992321567553262</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.038178251005149</v>
+        <v>2.044597259416008</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8118065059259152</v>
+        <v>1.320589219186417</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1689892433045728</v>
+        <v>0.0997986826086148</v>
       </c>
       <c r="E11">
-        <v>0.1669714859446856</v>
+        <v>0.06156998190606622</v>
       </c>
       <c r="F11">
-        <v>1.626118576672212</v>
+        <v>0.8544806662024342</v>
       </c>
       <c r="G11">
-        <v>0.002474087929171029</v>
+        <v>0.0008020547527580919</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.170028095995338</v>
+        <v>0.4250706610333772</v>
       </c>
       <c r="J11">
-        <v>0.2146004301255294</v>
+        <v>0.08199703053339857</v>
       </c>
       <c r="K11">
-        <v>0.7224255489542486</v>
+        <v>2.243698484934072</v>
       </c>
       <c r="L11">
-        <v>0.2983488494975717</v>
+        <v>0.5349686028506113</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.02705014297581</v>
+        <v>2.080461444605561</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8209634595758075</v>
+        <v>1.353607588840362</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1692431576844484</v>
+        <v>0.1013141042274412</v>
       </c>
       <c r="E12">
-        <v>0.1667495473962202</v>
+        <v>0.06140320099014396</v>
       </c>
       <c r="F12">
-        <v>1.625038681879957</v>
+        <v>0.8613559876551449</v>
       </c>
       <c r="G12">
-        <v>0.002473460688366184</v>
+        <v>0.0008010052379724011</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.167052101816378</v>
+        <v>0.4209690677753031</v>
       </c>
       <c r="J12">
-        <v>0.2142278941525569</v>
+        <v>0.08130625959075566</v>
       </c>
       <c r="K12">
-        <v>0.7395686097115401</v>
+        <v>2.299946443033093</v>
       </c>
       <c r="L12">
-        <v>0.3020284839329292</v>
+        <v>0.5485497094773422</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.023152034867252</v>
+        <v>2.094878703901827</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8189901900403527</v>
+        <v>1.346492052936895</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1691881610715882</v>
+        <v>0.1009871836501191</v>
       </c>
       <c r="E13">
-        <v>0.16679704312285</v>
+        <v>0.06143865435008244</v>
       </c>
       <c r="F13">
-        <v>1.625265943969836</v>
+        <v>0.8598617156059447</v>
       </c>
       <c r="G13">
-        <v>0.002473595227629998</v>
+        <v>0.0008012308389011083</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.16768957206402</v>
+        <v>0.4218446096625819</v>
       </c>
       <c r="J13">
-        <v>0.2143077770607785</v>
+        <v>0.08145447679956663</v>
       </c>
       <c r="K13">
-        <v>0.7358770931320748</v>
+        <v>2.287827724307618</v>
       </c>
       <c r="L13">
-        <v>0.3012355468322596</v>
+        <v>0.5456225137593975</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.023977514835792</v>
+        <v>2.09173557041882</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8125593322636178</v>
+        <v>1.323303678701507</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1690099925009818</v>
+        <v>0.09992311167039958</v>
       </c>
       <c r="E14">
-        <v>0.1669530904870982</v>
+        <v>0.06155605116251905</v>
       </c>
       <c r="F14">
-        <v>1.62602733896027</v>
+        <v>0.8550402268956674</v>
       </c>
       <c r="G14">
-        <v>0.002474036078727328</v>
+        <v>0.0008019682137496709</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.169781698476761</v>
+        <v>0.4247297135687376</v>
       </c>
       <c r="J14">
-        <v>0.2145696238998303</v>
+        <v>0.08193995158736667</v>
       </c>
       <c r="K14">
-        <v>0.7238361646349745</v>
+        <v>2.248323945126486</v>
       </c>
       <c r="L14">
-        <v>0.2986513667461281</v>
+        <v>0.5360849192891806</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.026723113166611</v>
+        <v>2.081630469337824</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8086236414938242</v>
+        <v>1.309112909107256</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1689017724239577</v>
+        <v>0.09927292701608792</v>
       </c>
       <c r="E15">
-        <v>0.1670495607524352</v>
+        <v>0.06162932003756794</v>
       </c>
       <c r="F15">
-        <v>1.626509273173369</v>
+        <v>0.852126257432829</v>
       </c>
       <c r="G15">
-        <v>0.002474307719058766</v>
+        <v>0.0008024211466451342</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.171073327802748</v>
+        <v>0.4265196473494086</v>
       </c>
       <c r="J15">
-        <v>0.2147310360247502</v>
+        <v>0.08223893439157837</v>
       </c>
       <c r="K15">
-        <v>0.7164591581882291</v>
+        <v>2.224140178806209</v>
       </c>
       <c r="L15">
-        <v>0.29706983821508</v>
+        <v>0.5302493760927689</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.028446004834393</v>
+        <v>2.075551423730587</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7861223218820044</v>
+        <v>1.227977742461576</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1682956445995742</v>
+        <v>0.09557080338811375</v>
       </c>
       <c r="E16">
-        <v>0.1676160006415159</v>
+        <v>0.0620698536472517</v>
       </c>
       <c r="F16">
-        <v>1.629509584242086</v>
+        <v>0.8360156163918688</v>
       </c>
       <c r="G16">
-        <v>0.002475889043546502</v>
+        <v>0.0008050365229528325</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.178630590293228</v>
+        <v>0.4371191414301023</v>
       </c>
       <c r="J16">
-        <v>0.2156717245227355</v>
+        <v>0.08397692232868847</v>
       </c>
       <c r="K16">
-        <v>0.6741608223811113</v>
+        <v>2.085743010119813</v>
       </c>
       <c r="L16">
-        <v>0.2880276869332903</v>
+        <v>0.4969031295923827</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.038949702529607</v>
+        <v>2.042367364658304</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7723659031189811</v>
+        <v>1.178360230157693</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1679363733528731</v>
+        <v>0.09332034215072582</v>
       </c>
       <c r="E17">
-        <v>0.1679756534511068</v>
+        <v>0.06235834431508813</v>
       </c>
       <c r="F17">
-        <v>1.631563121508961</v>
+        <v>0.8266414618480056</v>
       </c>
       <c r="G17">
-        <v>0.002476881188335892</v>
+        <v>0.000806659004985274</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.183405460137209</v>
+        <v>0.443920273553271</v>
       </c>
       <c r="J17">
-        <v>0.2162628332915932</v>
+        <v>0.08506497601057295</v>
       </c>
       <c r="K17">
-        <v>0.6481917577816034</v>
+        <v>2.000993885724171</v>
       </c>
       <c r="L17">
-        <v>0.2824994871156719</v>
+        <v>0.4765258040935265</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.045956030964817</v>
+        <v>2.023438945747387</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7644712112860361</v>
+        <v>1.149875106621153</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1677343657809729</v>
+        <v>0.09203330696701073</v>
       </c>
       <c r="E18">
-        <v>0.1681869921631964</v>
+        <v>0.06253090216264834</v>
       </c>
       <c r="F18">
-        <v>1.63282255313657</v>
+        <v>0.8214307918588659</v>
       </c>
       <c r="G18">
-        <v>0.002477459966489043</v>
+        <v>0.0008075989821946814</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.186202830027504</v>
+        <v>0.4479393220516954</v>
       </c>
       <c r="J18">
-        <v>0.2166079848688445</v>
+        <v>0.08569877617019461</v>
       </c>
       <c r="K18">
-        <v>0.6332478323099053</v>
+        <v>1.952298250334877</v>
       </c>
       <c r="L18">
-        <v>0.2793268152774289</v>
+        <v>0.4648325377690838</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.050192674009168</v>
+        <v>2.013059315346851</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7618012535417336</v>
+        <v>1.140239373430632</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.16766676728097</v>
+        <v>0.09159878393752052</v>
       </c>
       <c r="E19">
-        <v>0.1682593172354174</v>
+        <v>0.06259045811963748</v>
       </c>
       <c r="F19">
-        <v>1.633262424990768</v>
+        <v>0.8196970933078731</v>
       </c>
       <c r="G19">
-        <v>0.002477657327813496</v>
+        <v>0.0008079184180130317</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.187158729811422</v>
+        <v>0.4493182811887237</v>
       </c>
       <c r="J19">
-        <v>0.2167257343760866</v>
+        <v>0.08591473591733134</v>
       </c>
       <c r="K19">
-        <v>0.6281868660080931</v>
+        <v>1.93581870843056</v>
       </c>
       <c r="L19">
-        <v>0.2782538123276623</v>
+        <v>0.4608778921228804</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.051662646155989</v>
+        <v>2.009630482596208</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7738284768787196</v>
+        <v>1.18363647031947</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1679741389891305</v>
+        <v>0.09355913975335284</v>
       </c>
       <c r="E20">
-        <v>0.1679369047134216</v>
+        <v>0.06232694655941629</v>
       </c>
       <c r="F20">
-        <v>1.631336416897177</v>
+        <v>0.8276204802446401</v>
       </c>
       <c r="G20">
-        <v>0.002476774732785742</v>
+        <v>0.0008064855916155115</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.182891889860514</v>
+        <v>0.4431851283529618</v>
       </c>
       <c r="J20">
-        <v>0.2161993747134083</v>
+        <v>0.08494832375766048</v>
       </c>
       <c r="K20">
-        <v>0.6509569614781299</v>
+        <v>2.010010276568977</v>
       </c>
       <c r="L20">
-        <v>0.2830872502474477</v>
+        <v>0.4786921427439523</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.045188793893232</v>
+        <v>2.025400994129171</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8144475246783145</v>
+        <v>1.330111980107716</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1690621346879624</v>
+        <v>0.1002353226782589</v>
       </c>
       <c r="E21">
-        <v>0.1669070708350961</v>
+        <v>0.06152128501543075</v>
       </c>
       <c r="F21">
-        <v>1.625800456761141</v>
+        <v>0.8564481826088297</v>
       </c>
       <c r="G21">
-        <v>0.002473906255340727</v>
+        <v>0.0008017513651255551</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.16916507679522</v>
+        <v>0.4238775378483481</v>
       </c>
       <c r="J21">
-        <v>0.2144924999016508</v>
+        <v>0.0817970189132875</v>
       </c>
       <c r="K21">
-        <v>0.7273732101999144</v>
+        <v>2.259924323591974</v>
       </c>
       <c r="L21">
-        <v>0.2994101207906965</v>
+        <v>0.5388849737029915</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.025908092308754</v>
+        <v>2.084575424699239</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8411469580162532</v>
+        <v>1.426403573298643</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1698141259796202</v>
+        <v>0.1046691488342404</v>
       </c>
       <c r="E22">
-        <v>0.1662737226290449</v>
+        <v>0.06105539782287828</v>
       </c>
       <c r="F22">
-        <v>1.622878811849404</v>
+        <v>0.8770326814843088</v>
       </c>
       <c r="G22">
-        <v>0.002472103486581343</v>
+        <v>0.0007987144797661043</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.160647738035735</v>
+        <v>0.4122690510194005</v>
       </c>
       <c r="J22">
-        <v>0.2134227802115186</v>
+        <v>0.07980962552344006</v>
       </c>
       <c r="K22">
-        <v>0.7772452651567505</v>
+        <v>2.423841533021005</v>
       </c>
       <c r="L22">
-        <v>0.3101389542432429</v>
+        <v>0.5785103526431072</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.015148117279097</v>
+        <v>2.128152345425917</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8268832288095496</v>
+        <v>1.374955306376989</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1694090468760407</v>
+        <v>0.1022960287244672</v>
       </c>
       <c r="E23">
-        <v>0.1666081264581543</v>
+        <v>0.06129841733905828</v>
       </c>
       <c r="F23">
-        <v>1.624374462169484</v>
+        <v>0.8658801600077339</v>
       </c>
       <c r="G23">
-        <v>0.002473059093555541</v>
+        <v>0.0008003302423319559</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.165152074476023</v>
+        <v>0.418369505813093</v>
       </c>
       <c r="J23">
-        <v>0.2139895238193079</v>
+        <v>0.08086367661992089</v>
       </c>
       <c r="K23">
-        <v>0.7506343506663598</v>
+        <v>2.336295297364671</v>
       </c>
       <c r="L23">
-        <v>0.3044072728207539</v>
+        <v>0.5573331898146137</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.020722476695255</v>
+        <v>2.104426532654685</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.773167203448196</v>
+        <v>1.181250956454733</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1679570509935147</v>
+        <v>0.0934511582766433</v>
       </c>
       <c r="E24">
-        <v>0.1679544087828262</v>
+        <v>0.06234112063155273</v>
       </c>
       <c r="F24">
-        <v>1.631438664506746</v>
+        <v>0.8271773109748537</v>
       </c>
       <c r="G24">
-        <v>0.00247682283521011</v>
+        <v>0.0008065639693732811</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.183123912276297</v>
+        <v>0.4435171486284268</v>
       </c>
       <c r="J24">
-        <v>0.2162280477785754</v>
+        <v>0.08500103651387036</v>
       </c>
       <c r="K24">
-        <v>0.6497068563168966</v>
+        <v>2.005933881299825</v>
       </c>
       <c r="L24">
-        <v>0.2828215051893181</v>
+        <v>0.477712673203186</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.045535011954399</v>
+        <v>2.024512390817563</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7159025181755965</v>
+        <v>0.9743140406453961</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1665682766745817</v>
+        <v>0.08418979990963749</v>
       </c>
       <c r="E25">
-        <v>0.1695778079086612</v>
+        <v>0.06371828920764955</v>
       </c>
       <c r="F25">
-        <v>1.642052195802528</v>
+        <v>0.7922870398713258</v>
       </c>
       <c r="G25">
-        <v>0.002481193429915567</v>
+        <v>0.0008135484236340228</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.204459062131409</v>
+        <v>0.4747138456739037</v>
       </c>
       <c r="J25">
-        <v>0.2188400810185084</v>
+        <v>0.08976838665566444</v>
       </c>
       <c r="K25">
-        <v>0.5405680152385912</v>
+        <v>1.651419744374863</v>
       </c>
       <c r="L25">
-        <v>0.2598062588371732</v>
+        <v>0.3928482917319229</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.080205421433988</v>
+        <v>1.957520750478352</v>
       </c>
     </row>
   </sheetData>
